--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_qv_n16_d5.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_qv_n16_d5.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.538949728012085</v>
+        <v>0.6720612049102783</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001229047775268555</v>
+        <v>0.001753807067871094</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00365900993347168</v>
+        <v>0.003814935684204102</v>
       </c>
     </row>
     <row r="8">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.5436613119916498</v>
+        <v>0.5436056439235556</v>
       </c>
     </row>
     <row r="139">
@@ -1452,116 +1452,126 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>11885.69316010211</v>
+        <v>12039.29316010211</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>8</v>
+        <v>0.9995134811736803</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.5532450675964355</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.6884889602661133</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr">
+      <c r="K145" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr">
+      <c r="L145" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr">
+      <c r="M145" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N144" t="inlineStr">
+      <c r="N145" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_qv_n16_d5.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_qv_n16_d5.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6720612049102783</v>
+        <v>0.0007190704345703125</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001753807067871094</v>
+        <v>0.0005807876586914062</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003814935684204102</v>
+        <v>0.009936809539794922</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(2, 0), (0, 0), (0, 1), (1, 0), (0, 3), (2, 1), (0, 2), (2, 2), (1, 1), (3, 0), (1, 2), (3, 2), (3, 1), (1, 3), (2, 3), (3, 3)]</t>
+          <t>[[2, 0], [0, 0], [0, 1], [1, 0], [0, 3], [2, 1], [0, 2], [2, 2], [1, 1], [3, 0], [1, 2], [3, 2], [3, 1], [1, 3], [2, 3], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>[(3, 3), (2, 3), (1, 1), (0, 1), (0, 2), (1, 2), (0, 3), (2, 2), (3, 0), (1, 0), (0, 0), (3, 2), (2, 1), (1, 3), (2, 0), (3, 1)]</t>
+          <t>[[3, 3], [2, 3], [1, 1], [0, 1], [0, 2], [1, 2], [0, 3], [2, 2], [3, 0], [1, 0], [0, 0], [3, 2], [2, 1], [1, 3], [2, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.6884889602661133</v>
+        <v>0.02055621147155762</v>
       </c>
     </row>
     <row r="145">
